--- a/data/134/FSE/DAX 30 Index - Weekly.xlsx
+++ b/data/134/FSE/DAX 30 Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DUO2"/>
+  <dimension ref="A1:DUP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16679,15 +16679,20 @@
       </c>
       <c r="DUM1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="DUN1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="DUN1" s="1" t="inlineStr">
+      <c r="DUO1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="DUO1" s="1" t="inlineStr">
+      <c r="DUP1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -26480,19 +26485,22 @@
         <v>14305.76</v>
       </c>
       <c r="DUL2" t="n">
-        <v>14414.75</v>
-      </c>
-      <c r="DUM2" t="inlineStr">
+        <v>14446.48</v>
+      </c>
+      <c r="DUM2" t="n">
+        <v>14424.36</v>
+      </c>
+      <c r="DUN2" t="inlineStr">
         <is>
           <t>DAX30</t>
         </is>
       </c>
-      <c r="DUN2" t="inlineStr">
+      <c r="DUO2" t="inlineStr">
         <is>
           <t>DAX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="DUO2" t="inlineStr">
+      <c r="DUP2" t="inlineStr">
         <is>
           <t>Index: 1987.12.30=1000</t>
         </is>
